--- a/Book1lookup (3) (1) (1).xlsx
+++ b/Book1lookup (3) (1) (1).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Cybrom work\Advance Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E81DB11-0282-46F4-AFA2-DF236140082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2335DF83-F109-4D82-BE6C-C5365E9B5993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>SNO</t>
   </si>
@@ -108,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +132,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -167,6 +175,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +399,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1703,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949F3127-68B8-49D7-9400-99B6AD93607D}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView zoomScale="113" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1853,31 +1867,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE61535-72C5-4D08-B1C9-33B298165E3F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="8"/>
+    <col min="2" max="2" width="15.7265625" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1893,8 +1912,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1910,8 +1929,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1927,8 +1946,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1944,8 +1963,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1961,8 +1980,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1978,8 +1997,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1995,8 +2014,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2012,8 +2031,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2029,8 +2048,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2046,8 +2065,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2063,8 +2082,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:5" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2080,8 +2099,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2097,8 +2116,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2114,8 +2133,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2128,6 +2147,369 @@
         <v>150</v>
       </c>
       <c r="E16" s="3">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B87B7E-2C6D-487C-A9C3-F875AEBB1312}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="8" max="10" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6">
+        <v>14</v>
+      </c>
+      <c r="P1" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>60000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>68000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>72000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>73000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>75000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>75000</v>
+      </c>
+      <c r="H3" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I3" s="4">
+        <v>105000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>115000</v>
+      </c>
+      <c r="K3" s="4">
+        <v>120000</v>
+      </c>
+      <c r="L3" s="4">
+        <v>125000</v>
+      </c>
+      <c r="M3" s="4">
+        <v>125000</v>
+      </c>
+      <c r="N3" s="4">
+        <v>130000</v>
+      </c>
+      <c r="O3" s="4">
+        <v>200000</v>
+      </c>
+      <c r="P3" s="4">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3">
+        <v>150</v>
+      </c>
+      <c r="D4" s="3">
+        <v>160</v>
+      </c>
+      <c r="E4" s="3">
+        <v>125</v>
+      </c>
+      <c r="F4" s="3">
+        <v>149</v>
+      </c>
+      <c r="G4" s="3">
+        <v>155</v>
+      </c>
+      <c r="H4" s="3">
+        <v>350</v>
+      </c>
+      <c r="I4" s="3">
+        <v>250</v>
+      </c>
+      <c r="J4" s="3">
+        <v>100</v>
+      </c>
+      <c r="K4" s="3">
+        <v>110</v>
+      </c>
+      <c r="L4" s="3">
+        <v>110</v>
+      </c>
+      <c r="M4" s="3">
+        <v>125</v>
+      </c>
+      <c r="N4" s="3">
+        <v>110</v>
+      </c>
+      <c r="O4" s="3">
+        <v>220</v>
+      </c>
+      <c r="P4" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3">
+        <v>60</v>
+      </c>
+      <c r="F5" s="3">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3">
+        <v>70</v>
+      </c>
+      <c r="K5" s="3">
+        <v>55</v>
+      </c>
+      <c r="L5" s="3">
+        <v>50</v>
+      </c>
+      <c r="M5" s="3">
+        <v>48</v>
+      </c>
+      <c r="N5" s="3">
+        <v>54</v>
+      </c>
+      <c r="O5" s="3">
+        <v>40</v>
+      </c>
+      <c r="P5" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f>HLOOKUP(G9,$A$1:$P$5,2,0)</f>
+        <v>Yamaha FZ</v>
+      </c>
+      <c r="H10" t="str">
+        <f>HLOOKUP(H9,$A$1:$P$5,2,0)</f>
+        <v>Suzuki Gixxer</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="H10:K10" si="0">HLOOKUP(I9,$A$1:$P$5,2,0)</f>
+        <v>TVS Jupiter</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Honda Activa</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="e">
+        <f>HLOOKUP(G10,$A$1:$P$5,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H13" si="1">HLOOKUP(H10,B2:Q6,2,0)</f>
+        <v>75000</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I10:J13" si="2">HLOOKUP(I10,C2:R6,2,0)</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="F12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="e">
+        <f>HLOOKUP(G11,$A$1:$P$5,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="F13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" ref="G11:G13" si="3">HLOOKUP(G12,$A$1:$P$5,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
     </row>

--- a/Book1lookup (3) (1) (1).xlsx
+++ b/Book1lookup (3) (1) (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Cybrom work\Advance Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2335DF83-F109-4D82-BE6C-C5365E9B5993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A91576-5737-4151-A712-EE2CBBB63A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t>SNO</t>
   </si>
@@ -104,6 +104,15 @@
   <si>
     <t>lookup</t>
   </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>index and match</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -175,12 +184,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +406,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -719,23 +726,46 @@
       <c r="E16" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <f>INDEX(A1:E16,3,4)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <f>MATCH(H11,B1:B16,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <f>INDEX(C1:C16,MATCH(B14,B1:B16,0))</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1718,7 +1748,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1865,38 +1895,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE61535-72C5-4D08-B1C9-33B298165E3F}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8"/>
-    <col min="2" max="2" width="15.7265625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="8"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+    <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1911,9 +1943,16 @@
       <c r="E2" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <f>INDEX(A1:E16,3,4)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1928,9 +1967,16 @@
       <c r="E3" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <f>MATCH(B11,B1:B16,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1945,9 +1991,16 @@
       <c r="E4" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <f>INDEX(C1:C16,MATCH(B13,B1:B16,0))</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1963,8 +2016,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1980,8 +2033,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1996,9 +2049,17 @@
       <c r="E7" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="L7" t="str">
+        <f>_xlfn.XLOOKUP(A12,A1:A16,B1:B16)</f>
+        <v>Honda Activa</v>
+      </c>
+      <c r="M7">
+        <f>_xlfn.XLOOKUP(L7,B1:B16,C1:C16)</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2013,9 +2074,17 @@
       <c r="E8" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="L8" t="str">
+        <f>_xlfn.XLOOKUP(A13,A2:A17,B2:B17)</f>
+        <v>Yamaha Ray</v>
+      </c>
+      <c r="M8">
+        <f>_xlfn.XLOOKUP(L8,B2:B17,C2:C17)</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2031,13 +2100,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+    <row r="10" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="4">
         <v>115000</v>
       </c>
@@ -2047,9 +2114,13 @@
       <c r="E10" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="J10">
+        <f>_xlfn.XLOOKUP(B10,B1:B16,C1:C16,"value not found,0")</f>
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2065,8 +2136,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2081,9 +2152,13 @@
       <c r="E12" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="I12">
+        <f>_xlfn.XLOOKUP(B11,B1:B16,C1:C16,"not found")</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2099,8 +2174,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2115,9 +2190,14 @@
       <c r="E14" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="H14" s="5"/>
+      <c r="I14">
+        <f>_xlfn.XLOOKUP(H14,B1:B16,C1:C16,"not found")</f>
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2133,8 +2213,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+    <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2159,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B87B7E-2C6D-487C-A9C3-F875AEBB1312}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2171,57 +2251,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2271,7 +2351,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
@@ -2321,7 +2401,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -2371,7 +2451,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -2421,7 +2501,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G9">
@@ -2438,79 +2518,87 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <f>HLOOKUP(G9,$A$1:$P$5,2,0)</f>
+        <f>HLOOKUP(F1,A1:P5,2,0)</f>
         <v>Yamaha FZ</v>
       </c>
       <c r="H10" t="str">
-        <f>HLOOKUP(H9,$A$1:$P$5,2,0)</f>
+        <f t="shared" ref="H10:J10" si="0">HLOOKUP(G1,B1:Q5,2,0)</f>
         <v>Suzuki Gixxer</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" ref="H10:K10" si="0">HLOOKUP(I9,$A$1:$P$5,2,0)</f>
-        <v>TVS Jupiter</v>
+        <f t="shared" si="0"/>
+        <v>Royal Enfield</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>Honda Activa</v>
-      </c>
-      <c r="K10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>KTM Duke</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G11" t="e">
-        <f>HLOOKUP(G10,$A$1:$P$5,2,0)</f>
-        <v>#N/A</v>
+      <c r="G11">
+        <f>HLOOKUP(F1,A1:P5,3,0)</f>
+        <v>75000</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H13" si="1">HLOOKUP(H10,B2:Q6,2,0)</f>
+        <f t="shared" ref="H11:J11" si="1">HLOOKUP(G1,B1:Q5,3,0)</f>
         <v>75000</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I10:J13" si="2">HLOOKUP(I10,C2:R6,2,0)</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="F12" s="7" t="s">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G12" t="e">
-        <f>HLOOKUP(G11,$A$1:$P$5,2,0)</f>
-        <v>#N/A</v>
+      <c r="G12">
+        <f>HLOOKUP(F1,A1:P5,4,1)</f>
+        <v>149</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>149</v>
+        <f t="shared" ref="H12:J12" si="2">HLOOKUP(G1,B1:Q5,4,1)</f>
+        <v>155</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>350</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G13" t="e">
-        <f t="shared" ref="G11:G13" si="3">HLOOKUP(G12,$A$1:$P$5,2,0)</f>
-        <v>#N/A</v>
+      <c r="G13">
+        <f>HLOOKUP(F1,A1:P5,5,1)</f>
+        <v>43</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>43</v>
+        <f t="shared" ref="H13:J13" si="3">HLOOKUP(G1,B1:Q5,5,1)</f>
+        <v>50</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
